--- a/3．【申請者氏名】既修得単位認定申請予定科目一覧（申請用）.xlsx
+++ b/3．【申請者氏名】既修得単位認定申請予定科目一覧（申請用）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomoy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomoy\Documents\GitHub\guraduation-research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A7CDA1-9FBE-4F5A-BD65-F0EFD04EDA5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B154E4C2-1628-471F-BEB7-CE2CBC60D072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="（申請科目）" sheetId="1" r:id="rId1"/>
@@ -642,36 +642,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>卒業研究</t>
-    <rPh sb="0" eb="2">
-      <t>ソツギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>知能メディア処理</t>
-    <rPh sb="0" eb="2">
-      <t>チノウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>情報理論</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リロン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システム工学</t>
     <rPh sb="4" eb="6">
       <t>コウガク</t>
@@ -737,6 +707,36 @@
     <t>コンピュータ工学</t>
     <rPh sb="6" eb="8">
       <t>コウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報理論（修得見込）</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知能メディア処理（修得見込）</t>
+    <rPh sb="0" eb="2">
+      <t>チノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卒業研究（修得見込）</t>
+    <rPh sb="0" eb="2">
+      <t>ソツギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンキュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1616,6 +1616,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1680,18 +1692,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2697,8 +2697,8 @@
   </sheetPr>
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2717,16 +2717,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
       <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2735,58 +2735,58 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="45"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
       <c r="K3" s="24"/>
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
       <c r="K4" s="26"/>
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="58" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="59"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
       <c r="K5" s="26"/>
       <c r="L5" s="25"/>
     </row>
@@ -2797,17 +2797,17 @@
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="53"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="5" t="s">
         <v>7</v>
       </c>
@@ -3102,7 +3102,7 @@
       <c r="B21" s="15">
         <v>5</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="42" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="17"/>
@@ -3391,7 +3391,7 @@
         <v>45</v>
       </c>
       <c r="D36" s="32"/>
-      <c r="E36" s="65">
+      <c r="E36" s="43">
         <v>2</v>
       </c>
       <c r="F36" s="36"/>
@@ -3407,10 +3407,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D37" s="39"/>
-      <c r="E37" s="66">
+      <c r="E37" s="44">
         <v>1</v>
       </c>
       <c r="F37" s="40"/>
@@ -3426,7 +3426,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="18">
@@ -3445,7 +3445,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="18">
@@ -3673,7 +3673,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="18">
@@ -3787,7 +3787,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="18">
@@ -3806,7 +3806,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="18">
@@ -3825,7 +3825,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="18">
@@ -3844,7 +3844,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="18">
@@ -3863,7 +3863,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="18">
@@ -3881,8 +3881,8 @@
       <c r="B62" s="15">
         <v>5</v>
       </c>
-      <c r="C62" s="16" t="s">
-        <v>63</v>
+      <c r="C62" s="42" t="s">
+        <v>70</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="18">
@@ -3900,8 +3900,8 @@
       <c r="B63" s="15">
         <v>5</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>62</v>
+      <c r="C63" s="42" t="s">
+        <v>71</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="18">
@@ -3919,8 +3919,8 @@
       <c r="B64" s="15">
         <v>5</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>61</v>
+      <c r="C64" s="42" t="s">
+        <v>72</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="18">
@@ -4068,7 +4068,7 @@
       <c r="B75" s="21"/>
       <c r="C75" s="31"/>
       <c r="D75" s="32"/>
-      <c r="E75" s="65"/>
+      <c r="E75" s="43"/>
       <c r="F75" s="31"/>
       <c r="G75" s="32"/>
       <c r="H75" s="22"/>
@@ -4081,7 +4081,7 @@
       <c r="B76" s="8"/>
       <c r="C76" s="6"/>
       <c r="D76" s="28"/>
-      <c r="E76" s="67"/>
+      <c r="E76" s="45"/>
       <c r="F76" s="29"/>
       <c r="G76" s="30"/>
       <c r="H76" s="9"/>
@@ -4104,7 +4104,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59" bottom="0.62" header="0.19685039370078741" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="36" max="16383" man="1"/>
